--- a/Code/Results/Cases/Case_4_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.64885603343801</v>
+        <v>8.40942469049587</v>
       </c>
       <c r="C2">
-        <v>7.219936941099431</v>
+        <v>6.130479764429754</v>
       </c>
       <c r="D2">
-        <v>7.119602720545477</v>
+        <v>5.983608504630558</v>
       </c>
       <c r="E2">
-        <v>14.67143622513208</v>
+        <v>12.93255178033751</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>24.13430378717123</v>
+        <v>29.31653884102824</v>
       </c>
       <c r="H2">
-        <v>9.156296744678489</v>
+        <v>14.4120164427717</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.40380238984373</v>
+        <v>8.094003280954288</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.55045595441239</v>
+        <v>13.22193071412816</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.22089495692926</v>
+        <v>22.01687124542553</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.87148819779133</v>
+        <v>8.107977518448136</v>
       </c>
       <c r="C3">
-        <v>7.00890522661285</v>
+        <v>6.041535734697083</v>
       </c>
       <c r="D3">
-        <v>6.628976266609149</v>
+        <v>5.864388629054091</v>
       </c>
       <c r="E3">
-        <v>13.81459964698239</v>
+        <v>12.72634511710361</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>23.66541276024094</v>
+        <v>29.33387441203656</v>
       </c>
       <c r="H3">
-        <v>9.196674880260467</v>
+        <v>14.45597623849262</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.83809354024718</v>
+        <v>7.823340099493381</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.63135448534576</v>
+        <v>13.04565019629596</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.16989843734102</v>
+        <v>22.0781188278254</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.36779122103607</v>
+        <v>7.918338248044209</v>
       </c>
       <c r="C4">
-        <v>6.875976991796007</v>
+        <v>5.98577116089267</v>
       </c>
       <c r="D4">
-        <v>6.310666360040154</v>
+        <v>5.791695349216153</v>
       </c>
       <c r="E4">
-        <v>13.27456343594671</v>
+        <v>12.602625625596</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>23.40225447941984</v>
+        <v>29.35433509050244</v>
       </c>
       <c r="H4">
-        <v>9.22774344467887</v>
+        <v>14.48538446662642</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.47487694042263</v>
+        <v>7.650654959413193</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.03753462967902</v>
+        <v>12.93938290011327</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.15252737531195</v>
+        <v>22.12070061569829</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.15590833774649</v>
+        <v>7.840037135624149</v>
       </c>
       <c r="C5">
-        <v>6.821011032323401</v>
+        <v>5.962772640433886</v>
       </c>
       <c r="D5">
-        <v>6.191792547608558</v>
+        <v>5.762246205953688</v>
       </c>
       <c r="E5">
-        <v>13.05121170479837</v>
+        <v>12.5530072189384</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>23.30117831699611</v>
+        <v>29.36513438328576</v>
       </c>
       <c r="H5">
-        <v>9.241921801891152</v>
+        <v>14.49797578978954</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.32295436680311</v>
+        <v>7.578712660653009</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.78812071875898</v>
+        <v>12.8966257288588</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.14882272771953</v>
+        <v>22.13930086906073</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.1203260296314</v>
+        <v>7.826977402682793</v>
       </c>
       <c r="C6">
-        <v>6.811837317174177</v>
+        <v>5.958937675390703</v>
       </c>
       <c r="D6">
-        <v>6.172711125897391</v>
+        <v>5.757368063289667</v>
       </c>
       <c r="E6">
-        <v>13.01393357282844</v>
+        <v>12.54481837844238</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>23.2847646809443</v>
+        <v>29.36707601835174</v>
       </c>
       <c r="H6">
-        <v>9.244366038208643</v>
+        <v>14.50010323054722</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.29749440039112</v>
+        <v>7.56667371274783</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.74625703362727</v>
+        <v>12.88956051741537</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.14840746434724</v>
+        <v>22.14246469252913</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.36496048049219</v>
+        <v>7.917286217777505</v>
       </c>
       <c r="C7">
-        <v>6.875238862068024</v>
+        <v>5.985462083009321</v>
       </c>
       <c r="D7">
-        <v>6.308876242299176</v>
+        <v>5.791297422049769</v>
       </c>
       <c r="E7">
-        <v>13.27156419597217</v>
+        <v>12.60195312952354</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>23.40086647459898</v>
+        <v>29.35447077814308</v>
       </c>
       <c r="H7">
-        <v>9.227928592533239</v>
+        <v>14.48555181960901</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.47284376510324</v>
+        <v>7.649690997370263</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.03420102675289</v>
+        <v>12.93880397627731</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.15246392704634</v>
+        <v>22.12094641733908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.38630122005993</v>
+        <v>8.306499799082662</v>
       </c>
       <c r="C8">
-        <v>7.147895924505544</v>
+        <v>6.10006042927118</v>
       </c>
       <c r="D8">
-        <v>6.953956870109676</v>
+        <v>5.942423528107053</v>
       </c>
       <c r="E8">
-        <v>14.37900804246498</v>
+        <v>12.86089448901182</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>23.96746744104798</v>
+        <v>29.32047502031627</v>
       </c>
       <c r="H8">
-        <v>9.168879464846095</v>
+        <v>14.42667190488907</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.21208297186701</v>
+        <v>8.002062174605323</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>14.23965815920703</v>
+        <v>13.16077205764083</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.20033994049637</v>
+        <v>22.03695480652242</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.17976821789168</v>
+        <v>9.028857565415144</v>
       </c>
       <c r="C9">
-        <v>7.654152193024647</v>
+        <v>6.314972723505491</v>
       </c>
       <c r="D9">
-        <v>8.085034942422467</v>
+        <v>6.240822830639241</v>
       </c>
       <c r="E9">
-        <v>16.43613388609744</v>
+        <v>13.38844718640194</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>25.27630299874565</v>
+        <v>29.33193152342256</v>
       </c>
       <c r="H9">
-        <v>9.105695543925908</v>
+        <v>14.33040526618568</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.53311714951179</v>
+        <v>8.639119658331182</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.37084743593395</v>
+        <v>13.60934366737466</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.41051737019077</v>
+        <v>21.91186709485767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.37053133973206</v>
+        <v>9.529024662037374</v>
       </c>
       <c r="C10">
-        <v>8.006688703130141</v>
+        <v>6.466027955921532</v>
       </c>
       <c r="D10">
-        <v>8.836482605202558</v>
+        <v>6.458718510516329</v>
       </c>
       <c r="E10">
-        <v>18.0568333851873</v>
+        <v>13.78380974813643</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>26.3590453035012</v>
+        <v>29.38816759945226</v>
       </c>
       <c r="H10">
-        <v>9.095353898674958</v>
+        <v>14.27140918490796</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.42274231833929</v>
+        <v>9.071510479865076</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.79736264315378</v>
+        <v>13.94386572681897</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.64327080983499</v>
+        <v>21.84430074741198</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.88500674320505</v>
+        <v>9.748954743540938</v>
       </c>
       <c r="C11">
-        <v>8.162506450237382</v>
+        <v>6.533091294776041</v>
       </c>
       <c r="D11">
-        <v>9.161530850160679</v>
+        <v>6.557039896666629</v>
       </c>
       <c r="E11">
-        <v>18.76511790363677</v>
+        <v>13.96446084406061</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>26.87776343849237</v>
+        <v>29.42413375439297</v>
       </c>
       <c r="H11">
-        <v>9.099388515643032</v>
+        <v>14.24712344933027</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.80960436556448</v>
+        <v>9.259999734859059</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.41684314884546</v>
+        <v>14.09646205893879</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.76765722909485</v>
+        <v>21.8188820786194</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.07594599802781</v>
+        <v>9.831075584486069</v>
       </c>
       <c r="C12">
-        <v>8.220832882604553</v>
+        <v>6.558235351790062</v>
       </c>
       <c r="D12">
-        <v>9.282243537464433</v>
+        <v>6.594116438501825</v>
       </c>
       <c r="E12">
-        <v>19.02927557730942</v>
+        <v>14.03291086150444</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>27.07792794904378</v>
+        <v>29.43924289144418</v>
       </c>
       <c r="H12">
-        <v>9.102250426109586</v>
+        <v>14.2382945127932</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.9535246372002</v>
+        <v>9.330162330206546</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.6472627736708</v>
+        <v>14.15425255730278</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.81753503555691</v>
+        <v>21.81002381617806</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.03499588514163</v>
+        <v>9.813442078308942</v>
       </c>
       <c r="C13">
-        <v>8.208301742449951</v>
+        <v>6.552831521088271</v>
       </c>
       <c r="D13">
-        <v>9.25635094965109</v>
+        <v>6.586138884619823</v>
       </c>
       <c r="E13">
-        <v>18.97256286497944</v>
+        <v>14.01816823107194</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>27.03465313887067</v>
+        <v>29.43592270212773</v>
       </c>
       <c r="H13">
-        <v>9.101573472267624</v>
+        <v>14.24017962645967</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.92264348794863</v>
+        <v>9.3151060555545</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.59782177421254</v>
+        <v>14.14180695116892</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.80666775485696</v>
+        <v>21.81189744025625</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.90079302180347</v>
+        <v>9.755734526540547</v>
       </c>
       <c r="C14">
-        <v>8.167318716349401</v>
+        <v>6.535165025811502</v>
       </c>
       <c r="D14">
-        <v>9.171509350310604</v>
+        <v>6.560093549213675</v>
       </c>
       <c r="E14">
-        <v>18.78693087219187</v>
+        <v>13.97009185183821</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>26.8941563432542</v>
+        <v>29.42534696831452</v>
       </c>
       <c r="H14">
-        <v>9.099596778306706</v>
+        <v>14.24638971797481</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.82149643380967</v>
+        <v>9.265796566925575</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.43588293240596</v>
+        <v>14.10121671591541</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.7717044466759</v>
+        <v>21.81813791367395</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.81808543763451</v>
+        <v>9.7202337643633</v>
       </c>
       <c r="C15">
-        <v>8.142126458773463</v>
+        <v>6.524310654146396</v>
       </c>
       <c r="D15">
-        <v>9.119233152488222</v>
+        <v>6.544118597298075</v>
       </c>
       <c r="E15">
-        <v>18.67270151627767</v>
+        <v>13.94064692678996</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>26.80858391582297</v>
+        <v>29.41906286195092</v>
       </c>
       <c r="H15">
-        <v>9.098562069401762</v>
+        <v>14.2502414605785</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.75920528367599</v>
+        <v>9.235434024984626</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.33615065312909</v>
+        <v>14.07635314461721</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.75065315306773</v>
+        <v>21.82206037251825</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.33636418951546</v>
+        <v>9.514492690673649</v>
       </c>
       <c r="C16">
-        <v>7.996411907323887</v>
+        <v>6.461610766747862</v>
       </c>
       <c r="D16">
-        <v>8.814905331410952</v>
+        <v>6.452273353325094</v>
       </c>
       <c r="E16">
-        <v>18.00997151791264</v>
+        <v>13.77201351372422</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>26.32567027139189</v>
+        <v>29.38602581434398</v>
       </c>
       <c r="H16">
-        <v>9.095272647181641</v>
+        <v>14.27304771581502</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.39709992302185</v>
+        <v>9.059024101915533</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.75629138182743</v>
+        <v>13.93389693852038</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.63552412901288</v>
+        <v>21.84606914652841</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.03389538366024</v>
+        <v>9.386278940461656</v>
       </c>
       <c r="C17">
-        <v>7.905836403629622</v>
+        <v>6.422713190690382</v>
       </c>
       <c r="D17">
-        <v>8.623936707335824</v>
+        <v>6.395694706067665</v>
       </c>
       <c r="E17">
-        <v>17.59606168596119</v>
+        <v>13.66871397068029</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>26.03610347387522</v>
+        <v>29.36841631909006</v>
       </c>
       <c r="H17">
-        <v>9.095547364512878</v>
+        <v>14.28769263599566</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.17038131476752</v>
+        <v>8.948674585130034</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.39307142655009</v>
+        <v>13.84657293329335</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.56971885645917</v>
+        <v>21.8621616268283</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.85736007512075</v>
+        <v>9.311822129937246</v>
       </c>
       <c r="C18">
-        <v>7.853312361828785</v>
+        <v>6.400185579147223</v>
       </c>
       <c r="D18">
-        <v>8.512513965834454</v>
+        <v>6.363079107860285</v>
       </c>
       <c r="E18">
-        <v>17.35525635223889</v>
+        <v>13.60937825413377</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.87201769188886</v>
+        <v>29.35926555684508</v>
       </c>
       <c r="H18">
-        <v>9.09652316902881</v>
+        <v>14.29635616754682</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.03830031784488</v>
+        <v>8.884433663204886</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>17.18138032559469</v>
+        <v>13.79638927508838</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.53360474519912</v>
+        <v>21.87191797562862</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.79714715457178</v>
+        <v>9.286492362697093</v>
       </c>
       <c r="C19">
-        <v>7.835456009623335</v>
+        <v>6.392531967606089</v>
       </c>
       <c r="D19">
-        <v>8.474515180314384</v>
+        <v>6.352024751031806</v>
       </c>
       <c r="E19">
-        <v>17.27325079012256</v>
+        <v>13.58930412019871</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>25.81688529161273</v>
+        <v>29.35633527374754</v>
       </c>
       <c r="H19">
-        <v>9.09699169387506</v>
+        <v>14.29933072012044</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.99329219397131</v>
+        <v>8.862551514293154</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>17.10922646962459</v>
+        <v>13.77940699502687</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.52167161010216</v>
+        <v>21.87530716594117</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.06635878304337</v>
+        <v>9.400001696154892</v>
       </c>
       <c r="C20">
-        <v>7.915522741135909</v>
+        <v>6.426870022320228</v>
       </c>
       <c r="D20">
-        <v>8.644429168550479</v>
+        <v>6.401725461557102</v>
       </c>
       <c r="E20">
-        <v>17.64040541772089</v>
+        <v>13.67970270016418</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>26.06667338766547</v>
+        <v>29.37018970601184</v>
       </c>
       <c r="H20">
-        <v>9.095432928014228</v>
+        <v>14.28610879916663</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.1946897244411</v>
+        <v>8.960501514524019</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.43202369443674</v>
+        <v>13.85586469485616</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.57654349530291</v>
+        <v>21.86039674794263</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.94031672058607</v>
+        <v>9.772716675798231</v>
       </c>
       <c r="C21">
-        <v>8.179375002056453</v>
+        <v>6.540361032256035</v>
       </c>
       <c r="D21">
-        <v>9.196493557050946</v>
+        <v>6.567748231067817</v>
       </c>
       <c r="E21">
-        <v>18.84156455159086</v>
+        <v>13.98421250130875</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>26.93532243871315</v>
+        <v>29.42841293198831</v>
       </c>
       <c r="H21">
-        <v>9.100140546506372</v>
+        <v>14.24455568392536</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.85127573454231</v>
+        <v>9.280313160696659</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.48356070632381</v>
+        <v>14.11313933141355</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.78189780881059</v>
+        <v>21.81628409357895</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.48889318246459</v>
+        <v>10.00950885906146</v>
       </c>
       <c r="C22">
-        <v>8.347855771631171</v>
+        <v>6.613062859472309</v>
       </c>
       <c r="D22">
-        <v>9.543469118229167</v>
+        <v>6.675329397150128</v>
       </c>
       <c r="E22">
-        <v>19.60302224135635</v>
+        <v>14.18343601210078</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>27.52480756117663</v>
+        <v>29.47514412412587</v>
       </c>
       <c r="H22">
-        <v>9.111030820315502</v>
+        <v>14.21954090979076</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.26537867598415</v>
+        <v>9.482238581273151</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.14656764552799</v>
+        <v>14.28129123428625</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.93233534019446</v>
+        <v>21.79192697104613</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.1981643029841</v>
+        <v>9.883771142981622</v>
       </c>
       <c r="C23">
-        <v>8.258303618545284</v>
+        <v>6.574399504337778</v>
       </c>
       <c r="D23">
-        <v>9.359534176029834</v>
+        <v>6.618008671927589</v>
       </c>
       <c r="E23">
-        <v>19.1987335876596</v>
+        <v>14.07711123626487</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>27.20820435016139</v>
+        <v>29.44941044615442</v>
       </c>
       <c r="H23">
-        <v>9.104477383425962</v>
+        <v>14.23269552956874</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.04573944573098</v>
+        <v>9.375126015329524</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.79490018339217</v>
+        <v>14.19156244087474</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.85052275661031</v>
+        <v>21.80451675887177</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.05169031160294</v>
+        <v>9.393799953522761</v>
       </c>
       <c r="C24">
-        <v>7.911144950799</v>
+        <v>6.424991231263194</v>
       </c>
       <c r="D24">
-        <v>8.635169614069477</v>
+        <v>6.398999227323131</v>
       </c>
       <c r="E24">
-        <v>17.62036648046269</v>
+        <v>13.67473452621382</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>26.0528452831703</v>
+        <v>29.36938492612555</v>
       </c>
       <c r="H24">
-        <v>9.095482123121867</v>
+        <v>14.2868240918622</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.18370530320728</v>
+        <v>8.955157047471255</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.41442232221996</v>
+        <v>13.85166382271691</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.57345273293241</v>
+        <v>21.86119307815438</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.71695780382177</v>
+        <v>8.838440866665719</v>
       </c>
       <c r="C25">
-        <v>7.520472319073058</v>
+        <v>6.25797470544139</v>
       </c>
       <c r="D25">
-        <v>7.793173748201272</v>
+        <v>6.160151936886462</v>
       </c>
       <c r="E25">
-        <v>15.89074430819</v>
+        <v>13.24405716829999</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>24.90093169767601</v>
+        <v>29.32044081389635</v>
       </c>
       <c r="H25">
-        <v>9.116750781201356</v>
+        <v>14.35438983559413</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.1898241847033</v>
+        <v>8.472861898051974</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.81898811143976</v>
+        <v>13.48689545973703</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.34042225106034</v>
+        <v>21.94144539941761</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_87/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_87/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.40942469049587</v>
+        <v>12.64885603343822</v>
       </c>
       <c r="C2">
-        <v>6.130479764429754</v>
+        <v>7.219936941098902</v>
       </c>
       <c r="D2">
-        <v>5.983608504630558</v>
+        <v>7.119602720545506</v>
       </c>
       <c r="E2">
-        <v>12.93255178033751</v>
+        <v>14.67143622513209</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>29.31653884102824</v>
+        <v>24.134303787171</v>
       </c>
       <c r="H2">
-        <v>14.4120164427717</v>
+        <v>9.156296744678469</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.094003280954288</v>
+        <v>11.40380238984382</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.22193071412816</v>
+        <v>14.55045595441241</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>22.01687124542553</v>
+        <v>15.22089495692913</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.107977518448136</v>
+        <v>11.87148819779143</v>
       </c>
       <c r="C3">
-        <v>6.041535734697083</v>
+        <v>7.008905226612382</v>
       </c>
       <c r="D3">
-        <v>5.864388629054091</v>
+        <v>6.628976266609217</v>
       </c>
       <c r="E3">
-        <v>12.72634511710361</v>
+        <v>13.81459964698239</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>29.33387441203656</v>
+        <v>23.66541276024092</v>
       </c>
       <c r="H3">
-        <v>14.45597623849262</v>
+        <v>9.196674880260483</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.823340099493381</v>
+        <v>10.83809354024715</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.04565019629596</v>
+        <v>13.63135448534578</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.0781188278254</v>
+        <v>15.169898437341</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.918338248044209</v>
+        <v>11.36779122103606</v>
       </c>
       <c r="C4">
-        <v>5.98577116089267</v>
+        <v>6.875976991796115</v>
       </c>
       <c r="D4">
-        <v>5.791695349216153</v>
+        <v>6.31066636004017</v>
       </c>
       <c r="E4">
-        <v>12.602625625596</v>
+        <v>13.27456343594673</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>29.35433509050244</v>
+        <v>23.40225447942007</v>
       </c>
       <c r="H4">
-        <v>14.48538446662642</v>
+        <v>9.227743444678866</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.650654959413193</v>
+        <v>10.47487694042263</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.93938290011327</v>
+        <v>13.037534629679</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.12070061569829</v>
+        <v>15.15252737531202</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.840037135624149</v>
+        <v>11.15590833774664</v>
       </c>
       <c r="C5">
-        <v>5.962772640433886</v>
+        <v>6.821011032322939</v>
       </c>
       <c r="D5">
-        <v>5.762246205953688</v>
+        <v>6.191792547608559</v>
       </c>
       <c r="E5">
-        <v>12.5530072189384</v>
+        <v>13.05121170479838</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>29.36513438328576</v>
+        <v>23.30117831699592</v>
       </c>
       <c r="H5">
-        <v>14.49797578978954</v>
+        <v>9.24192180189104</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.578712660653009</v>
+        <v>10.32295436680318</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.8966257288588</v>
+        <v>12.78812071875898</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.13930086906073</v>
+        <v>15.1488227277194</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.826977402682793</v>
+        <v>11.12032602963143</v>
       </c>
       <c r="C6">
-        <v>5.958937675390703</v>
+        <v>6.811837317174187</v>
       </c>
       <c r="D6">
-        <v>5.757368063289667</v>
+        <v>6.172711125897412</v>
       </c>
       <c r="E6">
-        <v>12.54481837844238</v>
+        <v>13.01393357282844</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>29.36707601835174</v>
+        <v>23.28476468094423</v>
       </c>
       <c r="H6">
-        <v>14.50010323054722</v>
+        <v>9.244366038208472</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.56667371274783</v>
+        <v>10.29749440039117</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.88956051741537</v>
+        <v>12.74625703362732</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.14246469252913</v>
+        <v>15.14840746434714</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.917286217777505</v>
+        <v>11.36496048049219</v>
       </c>
       <c r="C7">
-        <v>5.985462083009321</v>
+        <v>6.875238862068035</v>
       </c>
       <c r="D7">
-        <v>5.791297422049769</v>
+        <v>6.308876242299196</v>
       </c>
       <c r="E7">
-        <v>12.60195312952354</v>
+        <v>13.27156419597218</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>29.35447077814308</v>
+        <v>23.40086647459903</v>
       </c>
       <c r="H7">
-        <v>14.48555181960901</v>
+        <v>9.227928592533182</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.649690997370263</v>
+        <v>10.47284376510323</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.93880397627731</v>
+        <v>13.03420102675287</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.12094641733908</v>
+        <v>15.15246392704633</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.306499799082662</v>
+        <v>12.3863012200599</v>
       </c>
       <c r="C8">
-        <v>6.10006042927118</v>
+        <v>7.147895924505439</v>
       </c>
       <c r="D8">
-        <v>5.942423528107053</v>
+        <v>6.953956870109648</v>
       </c>
       <c r="E8">
-        <v>12.86089448901182</v>
+        <v>14.37900804246495</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>29.32047502031627</v>
+        <v>23.96746744104799</v>
       </c>
       <c r="H8">
-        <v>14.42667190488907</v>
+        <v>9.168879464846089</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.002062174605323</v>
+        <v>11.21208297186698</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.16077205764083</v>
+        <v>14.23965815920702</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>22.03695480652242</v>
+        <v>15.20033994049641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.028857565415144</v>
+        <v>14.17976821789165</v>
       </c>
       <c r="C9">
-        <v>6.314972723505491</v>
+        <v>7.654152193024657</v>
       </c>
       <c r="D9">
-        <v>6.240822830639241</v>
+        <v>8.085034942422437</v>
       </c>
       <c r="E9">
-        <v>13.38844718640194</v>
+        <v>16.43613388609743</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.33193152342256</v>
+        <v>25.27630299874564</v>
       </c>
       <c r="H9">
-        <v>14.33040526618568</v>
+        <v>9.105695543925966</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.639119658331182</v>
+        <v>12.53311714951175</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.60934366737466</v>
+        <v>16.37084743593392</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.91186709485767</v>
+        <v>15.41051737019079</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.529024662037374</v>
+        <v>15.37053133973212</v>
       </c>
       <c r="C10">
-        <v>6.466027955921532</v>
+        <v>8.006688703129914</v>
       </c>
       <c r="D10">
-        <v>6.458718510516329</v>
+        <v>8.836482605202521</v>
       </c>
       <c r="E10">
-        <v>13.78380974813643</v>
+        <v>18.05683338518731</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.38816759945226</v>
+        <v>26.35904530350124</v>
       </c>
       <c r="H10">
-        <v>14.27140918490796</v>
+        <v>9.095353898674958</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.071510479865076</v>
+        <v>13.42274231833928</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.94386572681897</v>
+        <v>17.79736264315379</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.84430074741198</v>
+        <v>15.64327080983502</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9.748954743540938</v>
+        <v>15.88500674320506</v>
       </c>
       <c r="C11">
-        <v>6.533091294776041</v>
+        <v>8.162506450237544</v>
       </c>
       <c r="D11">
-        <v>6.557039896666629</v>
+        <v>9.161530850160702</v>
       </c>
       <c r="E11">
-        <v>13.96446084406061</v>
+        <v>18.76511790363673</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.42413375439297</v>
+        <v>26.87776343849227</v>
       </c>
       <c r="H11">
-        <v>14.24712344933027</v>
+        <v>9.099388515643097</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.259999734859059</v>
+        <v>13.80960436556449</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.09646205893879</v>
+        <v>18.41684314884544</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.8188820786194</v>
+        <v>15.76765722909482</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.831075584486069</v>
+        <v>16.07594599802792</v>
       </c>
       <c r="C12">
-        <v>6.558235351790062</v>
+        <v>8.220832882604565</v>
       </c>
       <c r="D12">
-        <v>6.594116438501825</v>
+        <v>9.282243537464446</v>
       </c>
       <c r="E12">
-        <v>14.03291086150444</v>
+        <v>19.02927557730942</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.43924289144418</v>
+        <v>27.07792794904364</v>
       </c>
       <c r="H12">
-        <v>14.2382945127932</v>
+        <v>9.102250426109498</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.330162330206546</v>
+        <v>13.95352463720029</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.15425255730278</v>
+        <v>18.64726277367086</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.81002381617806</v>
+        <v>15.81753503555675</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.813442078308942</v>
+        <v>16.03499588514155</v>
       </c>
       <c r="C13">
-        <v>6.552831521088271</v>
+        <v>8.208301742449926</v>
       </c>
       <c r="D13">
-        <v>6.586138884619823</v>
+        <v>9.256350949651134</v>
       </c>
       <c r="E13">
-        <v>14.01816823107194</v>
+        <v>18.97256286497944</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.43592270212773</v>
+        <v>27.03465313887079</v>
       </c>
       <c r="H13">
-        <v>14.24017962645967</v>
+        <v>9.101573472267678</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.3151060555545</v>
+        <v>13.92264348794856</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.14180695116892</v>
+        <v>18.59782177421251</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.81189744025625</v>
+        <v>15.80666775485703</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>9.755734526540547</v>
+        <v>15.90079302180359</v>
       </c>
       <c r="C14">
-        <v>6.535165025811502</v>
+        <v>8.16731871634939</v>
       </c>
       <c r="D14">
-        <v>6.560093549213675</v>
+        <v>9.171509350310684</v>
       </c>
       <c r="E14">
-        <v>13.97009185183821</v>
+        <v>18.78693087219192</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.42534696831452</v>
+        <v>26.89415634325426</v>
       </c>
       <c r="H14">
-        <v>14.24638971797481</v>
+        <v>9.099596778306593</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.265796566925575</v>
+        <v>13.82149643380972</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.10121671591541</v>
+        <v>18.43588293240604</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.81813791367395</v>
+        <v>15.77170444667584</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>9.7202337643633</v>
+        <v>15.81808543763448</v>
       </c>
       <c r="C15">
-        <v>6.524310654146396</v>
+        <v>8.142126458773545</v>
       </c>
       <c r="D15">
-        <v>6.544118597298075</v>
+        <v>9.119233152488242</v>
       </c>
       <c r="E15">
-        <v>13.94064692678996</v>
+        <v>18.67270151627771</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>29.41906286195092</v>
+        <v>26.80858391582285</v>
       </c>
       <c r="H15">
-        <v>14.2502414605785</v>
+        <v>9.098562069401762</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.235434024984626</v>
+        <v>13.75920528367598</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.07635314461721</v>
+        <v>18.33615065312908</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.82206037251825</v>
+        <v>15.75065315306767</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.514492690673649</v>
+        <v>15.33636418951545</v>
       </c>
       <c r="C16">
-        <v>6.461610766747862</v>
+        <v>7.996411907323902</v>
       </c>
       <c r="D16">
-        <v>6.452273353325094</v>
+        <v>8.814905331410952</v>
       </c>
       <c r="E16">
-        <v>13.77201351372422</v>
+        <v>18.00997151791264</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.38602581434398</v>
+        <v>26.32567027139182</v>
       </c>
       <c r="H16">
-        <v>14.27304771581502</v>
+        <v>9.095272647181641</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.059024101915533</v>
+        <v>13.39709992302186</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.93389693852038</v>
+        <v>17.75629138182743</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.84606914652841</v>
+        <v>15.63552412901284</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.386278940461656</v>
+        <v>15.0338953836603</v>
       </c>
       <c r="C17">
-        <v>6.422713190690382</v>
+        <v>7.905836403629706</v>
       </c>
       <c r="D17">
-        <v>6.395694706067665</v>
+        <v>8.62393670733583</v>
       </c>
       <c r="E17">
-        <v>13.66871397068029</v>
+        <v>17.59606168596119</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.36841631909006</v>
+        <v>26.03610347387496</v>
       </c>
       <c r="H17">
-        <v>14.28769263599566</v>
+        <v>9.095547364512823</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.948674585130034</v>
+        <v>13.17038131476764</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.84657293329335</v>
+        <v>17.39307142655015</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.8621616268283</v>
+        <v>15.56971885645902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.311822129937246</v>
+        <v>14.85736007512068</v>
       </c>
       <c r="C18">
-        <v>6.400185579147223</v>
+        <v>7.853312361828905</v>
       </c>
       <c r="D18">
-        <v>6.363079107860285</v>
+        <v>8.512513965834396</v>
       </c>
       <c r="E18">
-        <v>13.60937825413377</v>
+        <v>17.35525635223894</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.35926555684508</v>
+        <v>25.87201769188877</v>
       </c>
       <c r="H18">
-        <v>14.29635616754682</v>
+        <v>9.096523169028844</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.884433663204886</v>
+        <v>13.03830031784489</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.79638927508838</v>
+        <v>17.18138032559472</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.87191797562862</v>
+        <v>15.53360474519912</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.286492362697093</v>
+        <v>14.79714715457177</v>
       </c>
       <c r="C19">
-        <v>6.392531967606089</v>
+        <v>7.83545600962325</v>
       </c>
       <c r="D19">
-        <v>6.352024751031806</v>
+        <v>8.474515180314384</v>
       </c>
       <c r="E19">
-        <v>13.58930412019871</v>
+        <v>17.27325079012257</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.35633527374754</v>
+        <v>25.81688529161271</v>
       </c>
       <c r="H19">
-        <v>14.29933072012044</v>
+        <v>9.096991693874944</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.862551514293154</v>
+        <v>12.99329219397128</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.77940699502687</v>
+        <v>17.10922646962458</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.87530716594117</v>
+        <v>15.52167161010211</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.400001696154892</v>
+        <v>15.06635878304334</v>
       </c>
       <c r="C20">
-        <v>6.426870022320228</v>
+        <v>7.915522741136029</v>
       </c>
       <c r="D20">
-        <v>6.401725461557102</v>
+        <v>8.644429168550436</v>
       </c>
       <c r="E20">
-        <v>13.67970270016418</v>
+        <v>17.64040541772088</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.37018970601184</v>
+        <v>26.06667338766553</v>
       </c>
       <c r="H20">
-        <v>14.28610879916663</v>
+        <v>9.095432928014265</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.960501514524019</v>
+        <v>13.19468972444109</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.85586469485616</v>
+        <v>17.43202369443673</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.86039674794263</v>
+        <v>15.57654349530298</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>9.772716675798231</v>
+        <v>15.94031672058606</v>
       </c>
       <c r="C21">
-        <v>6.540361032256035</v>
+        <v>8.179375002056466</v>
       </c>
       <c r="D21">
-        <v>6.567748231067817</v>
+        <v>9.196493557050953</v>
       </c>
       <c r="E21">
-        <v>13.98421250130875</v>
+        <v>18.84156455159086</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.42841293198831</v>
+        <v>26.93532243871316</v>
       </c>
       <c r="H21">
-        <v>14.24455568392536</v>
+        <v>9.100140546506365</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.280313160696659</v>
+        <v>13.85127573454231</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.11313933141355</v>
+        <v>18.48356070632383</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.81628409357895</v>
+        <v>15.78189780881059</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.00950885906146</v>
+        <v>16.48889318246457</v>
       </c>
       <c r="C22">
-        <v>6.613062859472309</v>
+        <v>8.347855771631078</v>
       </c>
       <c r="D22">
-        <v>6.675329397150128</v>
+        <v>9.543469118229146</v>
       </c>
       <c r="E22">
-        <v>14.18343601210078</v>
+        <v>19.60302224135634</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.47514412412587</v>
+        <v>27.52480756117656</v>
       </c>
       <c r="H22">
-        <v>14.21954090979076</v>
+        <v>9.111030820315522</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.482238581273151</v>
+        <v>14.26537867598415</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.28129123428625</v>
+        <v>19.14656764552799</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.79192697104613</v>
+        <v>15.93233534019444</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.883771142981622</v>
+        <v>16.19816430298412</v>
       </c>
       <c r="C23">
-        <v>6.574399504337778</v>
+        <v>8.258303618545378</v>
       </c>
       <c r="D23">
-        <v>6.618008671927589</v>
+        <v>9.35953417602979</v>
       </c>
       <c r="E23">
-        <v>14.07711123626487</v>
+        <v>19.19873358765963</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.44941044615442</v>
+        <v>27.2082043501613</v>
       </c>
       <c r="H23">
-        <v>14.23269552956874</v>
+        <v>9.104477383425975</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.375126015329524</v>
+        <v>14.04573944573105</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.19156244087474</v>
+        <v>18.79490018339222</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.80451675887177</v>
+        <v>15.85052275661024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.393799953522761</v>
+        <v>15.05169031160298</v>
       </c>
       <c r="C24">
-        <v>6.424991231263194</v>
+        <v>7.911144950799205</v>
       </c>
       <c r="D24">
-        <v>6.398999227323131</v>
+        <v>8.635169614069477</v>
       </c>
       <c r="E24">
-        <v>13.67473452621382</v>
+        <v>17.6203664804627</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.36938492612555</v>
+        <v>26.05284528317025</v>
       </c>
       <c r="H24">
-        <v>14.2868240918622</v>
+        <v>9.095482123121863</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.955157047471255</v>
+        <v>13.1837053032073</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.85166382271691</v>
+        <v>17.41442232221999</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.86119307815438</v>
+        <v>15.57345273293234</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>8.838440866665719</v>
+        <v>13.7169578038218</v>
       </c>
       <c r="C25">
-        <v>6.25797470544139</v>
+        <v>7.52047231907329</v>
       </c>
       <c r="D25">
-        <v>6.160151936886462</v>
+        <v>7.793173748201214</v>
       </c>
       <c r="E25">
-        <v>13.24405716829999</v>
+        <v>15.89074430819</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>29.32044081389635</v>
+        <v>24.9009316976757</v>
       </c>
       <c r="H25">
-        <v>14.35438983559413</v>
+        <v>9.116750781201342</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.472861898051974</v>
+        <v>12.18982418470339</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.48689545973703</v>
+        <v>15.81898811143984</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.94144539941761</v>
+        <v>15.34042225106022</v>
       </c>
     </row>
   </sheetData>
